--- a/medicine/Enfance/William_Brittain/William_Brittain.xlsx
+++ b/medicine/Enfance/William_Brittain/William_Brittain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Brittain, né le 16 décembre 1930 à Rochester, dans l’État de New York, et mort le 17 décembre 2011 à Asheville, en Caroline du Nord, est un écrivain américain, spécialisé dans la nouvelle de littérature policière et, sous la signature Bill Brittain, en littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1964, il publie sa première nouvelle, Joshua (Joshua) dans Alfred Hitchcock's Mystery Magazine. L’année suivante pour Ellery Queen's Mystery Magazine, il commence une série de pastiches dont les titres commencent, sauf quatre exceptions, par The Man Who Read. En 1967, il entame une nouvelle série de nouvelles consacrée à Leonard Strang, professeur de physique et de chimie dans un lycée.
 Dans plusieurs nouvelles, on trouve des mystères de chambre close.
@@ -546,9 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nouvelles
-Série The Man Who Read
-The Man Who Read John Dickson Carr (1965) Publié en français sous le titre L'Homme qui lisait John Dickson Carr, Paris, Opta, Mystère magazine no 239, décembre 1967 ; réédition dans le recueil Les Meilleures Histoires de chambres closes,  Minerve, 1988  (ISBN 2-86931-000-5)
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série The Man Who Read</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Man Who Read John Dickson Carr (1965) Publié en français sous le titre L'Homme qui lisait John Dickson Carr, Paris, Opta, Mystère magazine no 239, décembre 1967 ; réédition dans le recueil Les Meilleures Histoires de chambres closes,  Minerve, 1988  (ISBN 2-86931-000-5)
 The Man Who Read Ellery Queen (1965) Publié en français sous le titre L'Homme qui lisait Ellery Queen, Paris, Opta, Mystère magazine no 240, janvier 1968
 The Man Who Didn't Read (1966)
 The Woman Who Read Rex Stout (1966) Publié en français sous le titre La Femme qui lisait Rex Stout, Paris, Opta, Mystère magazine no 245, juin 1968
@@ -558,9 +580,47 @@
 The Man Who Read Dashiell Hammett (1974)
 The Man Who Read Georges Simenon (1975)
 The Girl Who Read John Creasey (1975)
-The Men Who Read Isaac Asimov (1978)
-Série Leonard Strang
-Mr. Strang Gives a Lecture (1967)
+The Men Who Read Isaac Asimov (1978)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>William_Brittain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Brittain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Leonard Strang</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mr. Strang Gives a Lecture (1967)
 Mr. Strang Performs an Experiment (1967) Publié en français sous le titre M. Strang se livre à une expérience, Paris, Opta, Mystère magazine no 241, février 1968
 Mr. Strang Finds the Answers (1967)
 Mr. Strang Sees a Play (1968)  Publié en français sous le titre Du chaudron des sorcières, Paris, Opta, Mystère magazine no 250, décembre 1968
@@ -591,9 +651,47 @@
 Mr. Strang Takes a Partner (1982) Publié en français sous le titre Le Nouvel Associé de M. Strang, dans le recueil Mystère 89 : les dernières nouvelles du crime, Paris, LGF, Le Livre de poche no 6561, 1989  (ISBN 2-253-04814-3)
 Mr. Strang Studies Exhibit A (1982)
 Mr. Strang and the Purloined Memo (1983)
-Mr. Strang Takes a Tour (1983)
-Autres nouvelles
-Joshua (1964) Publié en français sous le titre Joshua, dans le recueil Histoires à donner des sueurs froides, Paris, Presses Pocket no  2116, 1984  (ISBN 2-266-01338-6)
+Mr. Strang Takes a Tour (1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>William_Brittain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Brittain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres nouvelles</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Joshua (1964) Publié en français sous le titre Joshua, dans le recueil Histoires à donner des sueurs froides, Paris, Presses Pocket no  2116, 1984  (ISBN 2-266-01338-6)
 The Zaretski Chain (1968)
 The Second Sign in the Melon Patch (1969) Publié en français sous le titre La Deuxième Pancarte dans le carré de melons, Paris, Opta, Mystère magazine no 256, juin 1969
 That Day on the Knob (1969)
@@ -618,20 +716,171 @@
 A Private Little War (1976)
 One Big Happy Family (1976)
 The Second Reason (1977)
-The Ferret Man (1977)
-Nouvelles signées James Knox
-The Last Word (1968)
-Mr. Lightning (1968)
-Nouvelle signée Roy Carroll
-The Button (1973) Publié en français sous le titre Le Bouton, Paris, Opta, Alfred Hitchcock magazine no 158, juillet 1974
-Littérature d’enfance et de jeunesse
-Série Coven Tree
-Devil's Donkey (1981)
+The Ferret Man (1977)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>William_Brittain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Brittain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nouvelles signées James Knox</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Last Word (1968)
+Mr. Lightning (1968)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>William_Brittain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Brittain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nouvelle signée Roy Carroll</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Button (1973) Publié en français sous le titre Le Bouton, Paris, Opta, Alfred Hitchcock magazine no 158, juillet 1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>William_Brittain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Brittain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Coven Tree</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Devil's Donkey (1981)
 The Wish Giver (en): three tales of Coven Tree (1983)
 Dr. Dredd's Wagon of Wonders (1987)
-Professor Popkin's Prodigious Polish: a tale of Coven Tree (1990)
-Autres ouvrages d'enfance et de jeunesse[1]
-All The Money In The World (1979)
+Professor Popkin's Prodigious Polish: a tale of Coven Tree (1990)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>William_Brittain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Brittain</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres ouvrages d'enfance et de jeunesse[1]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>All The Money In The World (1979)
 Who Knew There'd Be Ghosts? (1985)
 The Fantastic Freshman (1988)
 My Buddy, The King (1989)
@@ -639,39 +888,75 @@
 The Ghost From Beneath The Sea (1992)
 The Mystery of The Several Sevens (1994)
 The Wizards and The Monster (1994)
-Shape-Changer (1994)
-Autres publications
-Monarch illustrated guide to survival outdoors (1977)
+Shape-Changer (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>William_Brittain</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Brittain</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Monarch illustrated guide to survival outdoors (1977)
 Sherlock Holmes, Master Detective (1982), une étude par William Brittain d'un choix de nouvelles d'Arthur Conan Doyle
 Without a Map : searching for who you are (1993)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>William_Brittain</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/William_Brittain</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>William_Brittain</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Brittain</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 302-303</t>
